--- a/Component Configuration.xlsx
+++ b/Component Configuration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Touchsensor capacitive touchbuttons</t>
   </si>
@@ -24,9 +24,6 @@
     <t>Arduino MICRO Controller</t>
   </si>
   <si>
-    <t>5 Normally Closed solenoids</t>
-  </si>
-  <si>
     <t>Sainsmart 8-channel relay</t>
   </si>
   <si>
@@ -43,6 +40,93 @@
   </si>
   <si>
     <t>PCB v1</t>
+  </si>
+  <si>
+    <t>Normally Closed solenoids</t>
+  </si>
+  <si>
+    <t>First version w/ custom lift</t>
+  </si>
+  <si>
+    <t>Demo'd at Tales</t>
+  </si>
+  <si>
+    <t>Multiple corrections/refinements of v2.0</t>
+  </si>
+  <si>
+    <t>Not built</t>
+  </si>
+  <si>
+    <t>First unibody design</t>
+  </si>
+  <si>
+    <t>swapped out custom lift for dual rail cylinder</t>
+  </si>
+  <si>
+    <t>Taller; touchbuttons</t>
+  </si>
+  <si>
+    <t>w/ Micro</t>
+  </si>
+  <si>
+    <t>v3.0 w/ safety door added</t>
+  </si>
+  <si>
+    <t>Commenst</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>added right before TOTC</t>
+  </si>
+  <si>
+    <t>New features or significant fixes (2nd digit)</t>
+  </si>
+  <si>
+    <t>Any change in hardware that breaks compatibility with firmware is a major revision (1st digit)</t>
+  </si>
+  <si>
+    <t>Hotfixes (3rd digit)</t>
+  </si>
+  <si>
+    <t>Any change in sheet metal or manufactured components that affects anything else is a significant revision (2nd digit)</t>
+  </si>
+  <si>
+    <t>Any change in purchased or manufactured components that affect nothing else is a minor revsion (3rd digit)</t>
+  </si>
+  <si>
+    <t>v0.1.0.0</t>
+  </si>
+  <si>
+    <t>v0.1.0.1</t>
+  </si>
+  <si>
+    <t>v0.2.0.0</t>
+  </si>
+  <si>
+    <t>v0.2.1.0</t>
+  </si>
+  <si>
+    <t>v0.3.0.0</t>
+  </si>
+  <si>
+    <t>v0.4.0.0</t>
+  </si>
+  <si>
+    <t>Leading zero means pre-release. First release will be v1.0.0</t>
+  </si>
+  <si>
+    <t>Software will be versioned by build number</t>
+  </si>
+  <si>
+    <t>Instructions for versioning</t>
   </si>
 </sst>
 </file>
@@ -93,11 +177,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,82 +482,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="67.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="18.75">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1">
+      <c r="A2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" s="3" customFormat="1">
-      <c r="B2" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="C4" s="2">
+        <v>41644</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>41944</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>41456</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
-        <v>41649</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="C7" s="2">
+        <v>41395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
-        <v>41649</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2">
-        <v>41649</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2">
-        <v>41649</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="C8" s="2">
+        <v>41395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2">
-        <v>41649</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="C9" s="2">
+        <v>41395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2">
-        <v>41649</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2">
-        <v>41649</v>
+      <c r="C10" s="2">
+        <v>41440</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="3" customFormat="1">
+      <c r="A13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="3" customFormat="1">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2">
+        <v>41409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2">
+        <v>41440</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2">
+        <v>41470</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2">
+        <v>41501</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2">
+        <v>41562</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="3" customFormat="1">
+      <c r="A23" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Component Configuration.xlsx
+++ b/Component Configuration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Touchsensor capacitive touchbuttons</t>
   </si>
@@ -36,9 +36,6 @@
     <t>PBS Components that Affect Firmware</t>
   </si>
   <si>
-    <t>Date Added</t>
-  </si>
-  <si>
     <t>PCB v1</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>v3.0 w/ safety door added</t>
   </si>
   <si>
-    <t>Commenst</t>
-  </si>
-  <si>
     <t>Version</t>
   </si>
   <si>
@@ -127,6 +121,24 @@
   </si>
   <si>
     <t>Instructions for versioning</t>
+  </si>
+  <si>
+    <t>Cleaning switch moved from J10 to J11</t>
+  </si>
+  <si>
+    <t>v0.5.0.0</t>
+  </si>
+  <si>
+    <t>Cleaning switch now logic controlled</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
 </sst>
 </file>
@@ -177,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -187,6 +199,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -490,7 +512,7 @@
   <cols>
     <col min="1" max="1" width="9.140625" style="5"/>
     <col min="2" max="2" width="41.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="67.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -498,31 +520,33 @@
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1">
       <c r="A2" s="4"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1">
-      <c r="A3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2">
-        <v>41644</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="7" customFormat="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="10">
+        <v>41659</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -530,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
-        <v>41944</v>
+        <v>41644</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -541,32 +565,32 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>41456</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
+        <v>41944</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>41395</v>
+        <v>41456</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2">
         <v>41395</v>
@@ -577,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2">
         <v>41395</v>
@@ -588,136 +612,167 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>41395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2">
         <v>41440</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="3" customFormat="1">
-      <c r="A13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
     <row r="14" spans="1:4" s="3" customFormat="1">
-      <c r="A14" s="4"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="2">
-        <v>41409</v>
-      </c>
+      <c r="A14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="3" customFormat="1">
+      <c r="A15" s="4"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C16" s="2">
-        <v>41440</v>
+        <v>41409</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2">
-        <v>41470</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
+        <v>41440</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18" s="2">
-        <v>41501</v>
+        <v>41470</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C19" s="2">
-        <v>41562</v>
+        <v>41501</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C20" s="2">
+        <v>41562</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="2">
         <v>41640</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="3" customFormat="1">
-      <c r="A23" s="4" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="2">
+        <v>41659</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="3" customFormat="1">
+      <c r="A25" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" s="3" customFormat="1">
+      <c r="A26" s="4"/>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="B30" t="s">
-        <v>35</v>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Component Configuration.xlsx
+++ b/Component Configuration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>Touchsensor capacitive touchbuttons</t>
   </si>
@@ -81,21 +81,6 @@
     <t>added right before TOTC</t>
   </si>
   <si>
-    <t>New features or significant fixes (2nd digit)</t>
-  </si>
-  <si>
-    <t>Any change in hardware that breaks compatibility with firmware is a major revision (1st digit)</t>
-  </si>
-  <si>
-    <t>Hotfixes (3rd digit)</t>
-  </si>
-  <si>
-    <t>Any change in sheet metal or manufactured components that affects anything else is a significant revision (2nd digit)</t>
-  </si>
-  <si>
-    <t>Any change in purchased or manufactured components that affect nothing else is a minor revsion (3rd digit)</t>
-  </si>
-  <si>
     <t>v0.1.0.0</t>
   </si>
   <si>
@@ -117,9 +102,6 @@
     <t>Leading zero means pre-release. First release will be v1.0.0</t>
   </si>
   <si>
-    <t>Software will be versioned by build number</t>
-  </si>
-  <si>
     <t>Instructions for versioning</t>
   </si>
   <si>
@@ -129,9 +111,6 @@
     <t>v0.5.0.0</t>
   </si>
   <si>
-    <t>Cleaning switch now logic controlled</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -139,6 +118,36 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Cleaning switch added</t>
+  </si>
+  <si>
+    <t>This is logic controlled; so breaks backwards compatibility</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>1st digit same as first hardware version digit</t>
+  </si>
+  <si>
+    <t>2nd digit represents new features or major bugs</t>
+  </si>
+  <si>
+    <t>3rd digit is for minor hot fixes</t>
+  </si>
+  <si>
+    <t>1st digit: Any change in hardware that breaks compatibility with firmware is a major revision and increments 1st digit</t>
+  </si>
+  <si>
+    <t>2nd digit: Any change in sheet metal or manufactured components that affects anything else is a significant revision and increments 2nd digit</t>
+  </si>
+  <si>
+    <t>3rd digit: Any change in purchased or manufactured components that affect nothing else is a minor revsion and increments 3rd digit</t>
   </si>
 </sst>
 </file>
@@ -504,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,22 +537,22 @@
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1">
       <c r="A3" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="7" customFormat="1">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C4" s="10">
         <v>41659</v>
@@ -637,7 +646,7 @@
         <v>18</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="3" customFormat="1">
@@ -646,7 +655,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -657,7 +666,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -668,7 +677,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
@@ -682,7 +691,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -696,7 +705,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
@@ -710,7 +719,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
@@ -721,59 +730,82 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2">
         <v>41659</v>
       </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="25" spans="1:4" s="3" customFormat="1">
       <c r="A25" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:4" s="3" customFormat="1">
-      <c r="A26" s="4"/>
+      <c r="A26" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="A31"/>
+    </row>
+    <row r="32" spans="1:4" s="3" customFormat="1">
+      <c r="A32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="9"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="7" customFormat="1">
       <c r="A34" t="s">
-        <v>33</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C34" s="10"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Component Configuration.xlsx
+++ b/Component Configuration.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="0" yWindow="105" windowWidth="21075" windowHeight="9270"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Production" sheetId="2" r:id="rId1"/>
+    <sheet name="Prototypes" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
   <si>
     <t>Touchsensor capacitive touchbuttons</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>No.</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -148,13 +145,91 @@
   </si>
   <si>
     <t>3rd digit: Any change in purchased or manufactured components that affect nothing else is a minor revsion and increments 3rd digit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardware </t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>SN Range</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>P1 behind bottle check valve</t>
+  </si>
+  <si>
+    <t>1.0.1</t>
+  </si>
+  <si>
+    <t>002-010</t>
+  </si>
+  <si>
+    <t>P1 ahead of bottle check valve</t>
+  </si>
+  <si>
+    <t>1.1.0</t>
+  </si>
+  <si>
+    <t>P2 ahead of keg check valve</t>
+  </si>
+  <si>
+    <t>FIZZIQ Versioning and Configuration</t>
+  </si>
+  <si>
+    <t>011-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st digit: </t>
+  </si>
+  <si>
+    <t>Any change in hardware that breaks compatibility with firmware is a major revision and increments 1st digit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2nd digit: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3rd digit: </t>
+  </si>
+  <si>
+    <t>Any change in purchased or manufactured components that affect nothing else is a minor revsion and increments 3rd digit</t>
+  </si>
+  <si>
+    <t>Incremented when new features or major bugs are introduced, but backwards compatability unaffected</t>
+  </si>
+  <si>
+    <t>Incremented for minor hot fixes</t>
+  </si>
+  <si>
+    <t>Same as first digit of hardware version</t>
+  </si>
+  <si>
+    <t>Only first two digits will normally be shown to customer</t>
+  </si>
+  <si>
+    <t>Any change in sheet metal or manufactured components that affects backwards compatibility with SS and manufactured components increments 2nd digit (Example: Non-slotted filling head took us from 1.0 to 1.1)</t>
+  </si>
+  <si>
+    <t>RSM Set</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First use of plastic PTC Tees </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +246,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -198,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -218,6 +301,23 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,9 +613,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="5" customWidth="1"/>
+    <col min="4" max="5" width="14" style="15" customWidth="1"/>
+    <col min="6" max="6" width="45.140625" customWidth="1"/>
+    <col min="7" max="7" width="42.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="16" customFormat="1" ht="18.75">
+      <c r="A1" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="17"/>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1">
+      <c r="A3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="13">
+        <v>41810</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="13">
+        <v>41840</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="13">
+        <v>41950</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" s="7" customFormat="1">
+      <c r="A11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -536,9 +831,7 @@
       <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1">
-      <c r="A3" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
@@ -546,22 +839,14 @@
         <v>31</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="7" customFormat="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="10">
-        <v>41659</v>
-      </c>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="3" customFormat="1">
+      <c r="A4" s="4"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -569,259 +854,238 @@
         <v>41644</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="5">
+    <row r="6" spans="1:4" s="7" customFormat="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="10">
+        <v>41659</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="C7" s="2">
         <v>41944</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="5">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="2">
         <v>41456</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="9" spans="1:4">
+      <c r="B9" t="s">
         <v>7</v>
-      </c>
-      <c r="C8" s="2">
-        <v>41395</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="5">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
       </c>
       <c r="C9" s="2">
         <v>41395</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="5">
-        <v>1</v>
-      </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2">
         <v>41395</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="5">
-        <v>1</v>
-      </c>
       <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>41395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="2">
         <v>41440</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="3" customFormat="1">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:4" s="3" customFormat="1">
+      <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="3" customFormat="1">
-      <c r="A15" s="4"/>
-      <c r="C15" s="9"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="2">
-        <v>41409</v>
-      </c>
+    <row r="16" spans="1:4" s="3" customFormat="1">
+      <c r="A16" s="4"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C17" s="2">
-        <v>41440</v>
+        <v>41409</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C18" s="2">
-        <v>41470</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
+        <v>41440</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="2">
-        <v>41501</v>
+        <v>41470</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C20" s="2">
-        <v>41562</v>
+        <v>41501</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2">
-        <v>41640</v>
+        <v>41562</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="2">
+        <v>41659</v>
+      </c>
+      <c r="D23" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="2">
-        <v>41659</v>
-      </c>
-      <c r="D22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="3" customFormat="1">
-      <c r="A25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:4" s="3" customFormat="1">
       <c r="A26" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
+    <row r="27" spans="1:4" s="3" customFormat="1">
+      <c r="A27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31"/>
-    </row>
-    <row r="32" spans="1:4" s="3" customFormat="1">
-      <c r="A32" s="3" t="s">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32"/>
+    </row>
+    <row r="33" spans="1:3" s="3" customFormat="1">
+      <c r="A33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="7" customFormat="1">
+      <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="9"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="7" customFormat="1">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="10"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>39</v>
-      </c>
+      <c r="C35" s="10"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
